--- a/output.xlsx
+++ b/output.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Second-First-source-&amp;-sink-report" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Second-First-flow-report" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Second-First-performance-report" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,6 +415,975 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Repo</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sub Category</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Number of Node ( Second )</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Number of Node ( First )</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>List of Node Second</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>List of Node First</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>% Change</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>New Node added in Second</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>List of Node Missing in Second</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>J2PAY</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Last Name
+Account Name
+Address
+IP Address
+Email Address
+Account ID
+Phone Number
+First Name
+Account Password
+Card Number</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Last Name
+Account Name
+Address
+IP Address
+Email Address
+Account ID
+Phone Number
+First Name
+Account Password
+Card Number</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>J2PAY</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sink</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>storages</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>J2PAY</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sink</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>third_parties</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Braintreepayments
+Third Party API</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Braintreepayments</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Third Party API</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>J2PAY</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sink</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>leakages</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Repo Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Sink Category</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Sink</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Second</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>First</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Additional in Second</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Missing in Second</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Delta in %</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Additional Path Id in Second</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Missing Path ID in Second</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>J2PAY</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>J2PAY</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>storages</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>J2PAY</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>leakages</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>J2PAY</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>third_parties</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>J2PAY</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>third_parties</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Data.Sensitive.PersonalIdentification.LastName</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ThirdParties.SDK.Braintreepayments</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>5045-5097-5094
+4573-4625-4622</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>J2PAY</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>third_parties</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Data.Sensitive.PersonalIdentification.LastName</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Sinks.ThirdParties.API</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2549-2635-2646-2633</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>J2PAY</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>third_parties</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Data.Sensitive.ContactData.EmailAddress</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Sinks.ThirdParties.API</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2549-2635-2646-2633</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>J2PAY</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>third_parties</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Data.Sensitive.ContactData.EmailAddress</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ThirdParties.SDK.Braintreepayments</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>5045-5097-5094
+4573-4625-4622</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>J2PAY</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>third_parties</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Data.Sensitive.AccountData.AccountID</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ThirdParties.SDK.Braintreepayments</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>J2PAY</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>third_parties</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Data.Sensitive.ContactData.PhoneNumber</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Sinks.ThirdParties.API</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2549-2635-2646-2633</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>J2PAY</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>third_parties</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Data.Sensitive.ContactData.PhoneNumber</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ThirdParties.SDK.Braintreepayments</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>5045-5097-5094
+4573-4625-4622</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>J2PAY</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>third_parties</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Data.Sensitive.ContactData.Address</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ThirdParties.SDK.Braintreepayments</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>4573-4625-4622
+5045-5097-5094</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>J2PAY</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>third_parties</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Data.Sensitive.ContactData.Address</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Sinks.ThirdParties.API</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2549-2635-2646-2633</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>J2PAY</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>third_parties</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Data.Sensitive.PersonalIdentification.FirstName</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ThirdParties.SDK.Braintreepayments</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>4573-4625-4622
+5045-5097-5094</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>J2PAY</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>third_parties</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Data.Sensitive.PersonalIdentification.FirstName</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Sinks.ThirdParties.API</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2549-2635-2646-2633</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -424,242 +1394,4 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Repo</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Sub Category</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Number of Node ( Second )</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Number of Node ( First )</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>List of Node Second</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>List of Node First</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>% Change</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>New Node added in Second</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>List of Node Missing in Second</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>J2PAY</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Account Name
-Email Address
-Last Name
-Phone Number
-Account Password
-IP Address
-Address
-Account ID
-Card Number
-First Name</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Account Name
-Email Address
-Last Name
-Phone Number
-Account Password
-IP Address
-Address
-Account ID
-Card Number
-First Name</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>J2PAY</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Sink</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>storages</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>J2PAY</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Sink</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>third_parties</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Third Party API
-Braintreepayments</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Braintreepayments</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Third Party API</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>J2PAY</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sink</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>leakages</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>